--- a/biology/Zoologie/Anthicinae/Anthicinae.xlsx
+++ b/biology/Zoologie/Anthicinae/Anthicinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthicinae sont une sous-famille d'insectes coléoptères de la famille des Anthicidae : ressemblent superficiellement à des fourmis (" ant " = fourmi en anglais).
 </t>
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des tribus
-Selon Fauna Europaea                                      (2 déc. 2012)[1] :
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (2 déc. 2012) :
 tribu Anthicini
 tribu Endomiini
 tribu Formicomini
 tribu Microhorini
-tribu Notoxini
-Liste des genres
-Selon ITIS      (27 nov. 2012)[2] :
+tribu Notoxini</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anthicinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthicinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-taxons</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 nov. 2012) :
 genre Acanthinus LaFerté-Sénectère, 1849
 genre Amblyderus LaFerté-Sénectère, 1849
 genre Anthelephila Hope, 1833
@@ -540,9 +591,43 @@
 genre Squamanotoxus Chandler, 2001
 genre Stricticomus Pic, 1894
 genre Tanarthrus LeConte, 1851
-genre Vacusus Casey, 1895
-Liste des tribus et genres
-Selon Paleobiology Database                   (18 juin 2021)[3] :
+genre Vacusus Casey, 1895</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthicinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthicinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-taxons</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (18 juin 2021) :
 tribu Anthicini
 genre Cyclodinus</t>
         </is>
